--- a/articulos_destacados_wikipedia.xlsx
+++ b/articulos_destacados_wikipedia.xlsx
@@ -1,37 +1,1242 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\WebCrawler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4923C79C-F963-41F7-BDB8-E81F5A0E4213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="398">
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Portada</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Portada</t>
+  </si>
+  <si>
+    <t>Portal de la comunidad</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Comunidad</t>
+  </si>
+  <si>
+    <t>Actualidad</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Actualidad</t>
+  </si>
+  <si>
+    <t>Cambios recientes</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Especial:CambiosRecientes</t>
+  </si>
+  <si>
+    <t>Páginas nuevas</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Especial:P%C3%A1ginasNuevas</t>
+  </si>
+  <si>
+    <t>Página aleatoria</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Especial:Aleatoria</t>
+  </si>
+  <si>
+    <t>Ayuda</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Ayuda:Contenidos</t>
+  </si>
+  <si>
+    <t>Notificar un error</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Informes_de_error</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Especial:Buscar</t>
+  </si>
+  <si>
+    <t>más información</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Ayuda:Introducci%C3%B3n</t>
+  </si>
+  <si>
+    <t>Contribuciones</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Especial:MisContribuciones</t>
+  </si>
+  <si>
+    <t>Discusión</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Especial:MiDiscusi%C3%B3n</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia_discusi%C3%B3n:Portada</t>
+  </si>
+  <si>
+    <t>Leer</t>
+  </si>
+  <si>
+    <t>Lo que enlaza aquí</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Especial:LoQueEnlazaAqu%C3%AD/Wikipedia:Portada</t>
+  </si>
+  <si>
+    <t>Cambios en enlazadas</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Especial:CambiosEnEnlazadas/Wikipedia:Portada</t>
+  </si>
+  <si>
+    <t>Páginas especiales</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Especial:P%C3%A1ginasEspeciales</t>
+  </si>
+  <si>
+    <t>Bienvenidos</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Bienvenidos</t>
+  </si>
+  <si>
+    <t>todos pueden editar</t>
+  </si>
+  <si>
+    <t>Buscar en 1 989 200 artículos</t>
+  </si>
+  <si>
+    <t>1 989 200</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Especial:Estad%C3%ADsticas</t>
+  </si>
+  <si>
+    <t>en español</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia_en_espa%C3%B1ol</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Caf%C3%A9</t>
+  </si>
+  <si>
+    <t>¿Cómo colaborar?</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Ayuda:C%C3%B3mo_puedes_colaborar</t>
+  </si>
+  <si>
+    <t>Primeros pasos</t>
+  </si>
+  <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Contacto</t>
+  </si>
+  <si>
+    <t>Orgullo LGBT en Ecuador</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Orgullo_LGBT_en_Ecuador</t>
+  </si>
+  <si>
+    <t>Marcha del Orgullo LGBT de Guayaquil</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Marcha_del_Orgullo_LGBT_de_Guayaquil</t>
+  </si>
+  <si>
+    <t>Avenida Malecón</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Avenida_Malec%C3%B3n_Sim%C3%B3n_Bol%C3%ADvar</t>
+  </si>
+  <si>
+    <t>del país</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Ecuador</t>
+  </si>
+  <si>
+    <t>festivales</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Festival_del_orgullo</t>
+  </si>
+  <si>
+    <t>marchas</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Marcha_del_orgullo</t>
+  </si>
+  <si>
+    <t>diversidad sexual</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Diversidad_sexual</t>
+  </si>
+  <si>
+    <t>derechos</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Legislaci%C3%B3n_sobre_derechos_LGBT_en_el_mundo</t>
+  </si>
+  <si>
+    <t>LGBT</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/LGBT</t>
+  </si>
+  <si>
+    <t>mes de junio</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Mes_del_Orgullo_LGBTQIA%2B</t>
+  </si>
+  <si>
+    <t>banderas arcoíris</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Bandera_LGBT</t>
+  </si>
+  <si>
+    <t>carrozas alegóricas</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Carroza_aleg%C3%B3rica</t>
+  </si>
+  <si>
+    <t>Orgullo LGBT</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Orgullo_LGBT</t>
+  </si>
+  <si>
+    <t>disturbios de Stonewall</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Disturbios_de_Stonewall</t>
+  </si>
+  <si>
+    <t>Nueva York</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Nueva_York</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Estados_Unidos</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Quito</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Guayaquil</t>
+  </si>
+  <si>
+    <t>Manta</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Manta_(Ecuador)</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Loja_(Ecuador)</t>
+  </si>
+  <si>
+    <t>Ambato</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Ambato</t>
+  </si>
+  <si>
+    <t>Cuenca</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Cuenca_(Ecuador)</t>
+  </si>
+  <si>
+    <t>Portoviejo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portoviejo</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Santo_Domingo_(Ecuador)</t>
+  </si>
+  <si>
+    <t>Durán</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Dur%C3%A1n_(Ecuador)</t>
+  </si>
+  <si>
+    <t>Babahoyo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Babahoyo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Marcha_del_Orgullo_LGBT_de_Quito</t>
+  </si>
+  <si>
+    <t>Todos los artículos destacados</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Art%C3%ADculos_destacados/%C3%8Dndice</t>
+  </si>
+  <si>
+    <t>Candidatos</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Candidatos_a_art%C3%ADculos_destacados</t>
+  </si>
+  <si>
+    <t>Anticoncepción de emergencia en España</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Anticoncepci%C3%B3n_de_emergencia_en_Espa%C3%B1a</t>
+  </si>
+  <si>
+    <t>True Blue</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/True_Blue_(canci%C3%B3n)</t>
+  </si>
+  <si>
+    <t>Odonimia de Barcelona</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Odonimia_de_Barcelona</t>
+  </si>
+  <si>
+    <t>Telecinco</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Telecinco</t>
+  </si>
+  <si>
+    <t>canal de televisión</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Canal_de_televisi%C3%B3n</t>
+  </si>
+  <si>
+    <t>español</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Espa%C3%B1a</t>
+  </si>
+  <si>
+    <t>en abierto</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Se%C3%B1al_abierta</t>
+  </si>
+  <si>
+    <t>Mediaset España</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Mediaset_Espa%C3%B1a</t>
+  </si>
+  <si>
+    <t>La 1</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/La_1</t>
+  </si>
+  <si>
+    <t>Antena 3</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Antena_3</t>
+  </si>
+  <si>
+    <t>madrileño</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Madrid</t>
+  </si>
+  <si>
+    <t>Fuencarral</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Fuencarral</t>
+  </si>
+  <si>
+    <t>Todos los artículos buenos</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Art%C3%ADculos_buenos/%C3%8Dndice</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Selecci%C3%B3n_de_art%C3%ADculos_buenos/nominaciones</t>
+  </si>
+  <si>
+    <t>Anexo:Ganadores del Festival Internacional de la Canción de Viña del Mar</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Anexo:Ganadores_del_Festival_Internacional_de_la_Canci%C3%B3n_de_Vi%C3%B1a_del_Mar</t>
+  </si>
+  <si>
+    <t>Remixed &amp; Revisited</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Remixed_%26_Revisited</t>
+  </si>
+  <si>
+    <t>Anexo:Discografía de All Time Low</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Anexo:Discograf%C3%ADa_de_All_Time_Low</t>
+  </si>
+  <si>
+    <t>Recurso del día</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Recurso_del_d%C3%ADa</t>
+  </si>
+  <si>
+    <t>orquídea olorosa negra</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Gymnadenia_rhellicani</t>
+  </si>
+  <si>
+    <t>orquídea</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Orchidaceae</t>
+  </si>
+  <si>
+    <t>inflorescencia</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Inflorescencia</t>
+  </si>
+  <si>
+    <t>racimo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Racimo</t>
+  </si>
+  <si>
+    <t>Archivo</t>
+  </si>
+  <si>
+    <t>Portales</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Portal</t>
+  </si>
+  <si>
+    <t>Artes</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Arte</t>
+  </si>
+  <si>
+    <t>Arquitectura</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Arquitectura</t>
+  </si>
+  <si>
+    <t>Cine</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Cine</t>
+  </si>
+  <si>
+    <t>Danza</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Danza</t>
+  </si>
+  <si>
+    <t>Literatura</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Literatura</t>
+  </si>
+  <si>
+    <t>Música</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:M%C3%BAsica</t>
+  </si>
+  <si>
+    <t>Música clásica</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:M%C3%BAsica_cl%C3%A1sica</t>
+  </si>
+  <si>
+    <t>Pintura</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Pintura</t>
+  </si>
+  <si>
+    <t>Teatro</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Teatro</t>
+  </si>
+  <si>
+    <t>Ciencias sociales</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Ciencias_humanas_y_sociales</t>
+  </si>
+  <si>
+    <t>Comunicación</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Comunicaci%C3%B3n</t>
+  </si>
+  <si>
+    <t>Deporte</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Deporte</t>
+  </si>
+  <si>
+    <t>Derecho</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Derecho</t>
+  </si>
+  <si>
+    <t>Economía</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Econom%C3%ADa</t>
+  </si>
+  <si>
+    <t>Feminismo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Feminismo</t>
+  </si>
+  <si>
+    <t>Filosofía</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Filosof%C3%ADa</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:LGBT</t>
+  </si>
+  <si>
+    <t>Lingüística</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Ling%C3%BC%C3%ADstica</t>
+  </si>
+  <si>
+    <t>Psicología</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Psicolog%C3%ADa</t>
+  </si>
+  <si>
+    <t>Sociología</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Sociolog%C3%ADa</t>
+  </si>
+  <si>
+    <t>Ciencias naturales</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Ciencias_naturales</t>
+  </si>
+  <si>
+    <t>Astronomía</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Astronom%C3%ADa</t>
+  </si>
+  <si>
+    <t>Biología</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Biolog%C3%ADa</t>
+  </si>
+  <si>
+    <t>Botánica</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Bot%C3%A1nica</t>
+  </si>
+  <si>
+    <t>Física</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:F%C3%ADsica</t>
+  </si>
+  <si>
+    <t>Medicina</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Medicina</t>
+  </si>
+  <si>
+    <t>Matemática</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Matem%C3%A1tica</t>
+  </si>
+  <si>
+    <t>Química</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Qu%C3%ADmica</t>
+  </si>
+  <si>
+    <t>Geografía</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Geograf%C3%ADa</t>
+  </si>
+  <si>
+    <t>África</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:%C3%81frica</t>
+  </si>
+  <si>
+    <t>América</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Am%C3%A9rica</t>
+  </si>
+  <si>
+    <t>Antártida</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Ant%C3%A1rtida</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Asia</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Europa</t>
+  </si>
+  <si>
+    <t>Oceanía</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Ocean%C3%ADa</t>
+  </si>
+  <si>
+    <t>Países</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Pa%C3%ADses</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Historia</t>
+  </si>
+  <si>
+    <t>Prehistoria</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Prehistoria</t>
+  </si>
+  <si>
+    <t>Edad Antigua</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Edad_Antigua</t>
+  </si>
+  <si>
+    <t>Edad Media</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Edad_Media</t>
+  </si>
+  <si>
+    <t>Edad Moderna</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Edad_Moderna</t>
+  </si>
+  <si>
+    <t>Edad Contemporánea</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Edad_Contempor%C3%A1nea</t>
+  </si>
+  <si>
+    <t>Política</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Pol%C3%ADtica</t>
+  </si>
+  <si>
+    <t>Marxismo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Marxismo</t>
+  </si>
+  <si>
+    <t>Nacionalismo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Nacionalismo</t>
+  </si>
+  <si>
+    <t>Socialismo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Socialismo</t>
+  </si>
+  <si>
+    <t>Terrorismo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Terrorismo</t>
+  </si>
+  <si>
+    <t>Religión</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Religi%C3%B3n</t>
+  </si>
+  <si>
+    <t>Ateísmo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Ate%C3%ADsmo</t>
+  </si>
+  <si>
+    <t>Budismo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Budismo</t>
+  </si>
+  <si>
+    <t>Cristianismo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Cristianismo</t>
+  </si>
+  <si>
+    <t>Iglesia católica</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Iglesia_cat%C3%B3lica</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Islam</t>
+  </si>
+  <si>
+    <t>Judaísmo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Juda%C3%ADsmo</t>
+  </si>
+  <si>
+    <t>Mitología</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Mitolog%C3%ADa</t>
+  </si>
+  <si>
+    <t>Tecnologías</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Tecnolog%C3%ADa</t>
+  </si>
+  <si>
+    <t>Biotecnología</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Biotecnolog%C3%ADa</t>
+  </si>
+  <si>
+    <t>Exploración espacial</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Exploraci%C3%B3n_espacial</t>
+  </si>
+  <si>
+    <t>Informática</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Inform%C3%A1tica</t>
+  </si>
+  <si>
+    <t>Ingeniería</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Ingenier%C3%ADa</t>
+  </si>
+  <si>
+    <t>Software libre</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Software_libre</t>
+  </si>
+  <si>
+    <t>Videojuegos</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Portal:Videojuegos</t>
+  </si>
+  <si>
+    <t>Guerra Israel-Gaza</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Guerra_Israel-Gaza_(2023-presente)</t>
+  </si>
+  <si>
+    <t>Guerra libanesa-israelí</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Guerra_libanesa-israel%C3%AD_(2023-actualidad)</t>
+  </si>
+  <si>
+    <t>Invasión israelí del Líbano</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Invasi%C3%B3n_israel%C3%AD_del_L%C3%ADbano_de_2024</t>
+  </si>
+  <si>
+    <t>Invasión rusa de Ucrania</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Invasi%C3%B3n_rusa_de_Ucrania</t>
+  </si>
+  <si>
+    <t>Huracán Rafael</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Hurac%C3%A1n_Rafael_(2024)</t>
+  </si>
+  <si>
+    <t>Finales de la Copa Billie Jean King</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Finales_de_la_Copa_Billie_Jean_King_2024</t>
+  </si>
+  <si>
+    <t>Elecciones presidenciales de Somalilandia</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Elecciones_presidenciales_de_Somalilandia_de_2024</t>
+  </si>
+  <si>
+    <t>Miss Internacional</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Miss_Internacional_2024</t>
+  </si>
+  <si>
+    <t>Conferencia de las Naciones Unidas sobre el Cambio Climático</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Conferencia_de_las_Naciones_Unidas_sobre_el_Cambio_Clim%C3%A1tico_de_2024</t>
+  </si>
+  <si>
+    <t>ATP Finals</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/ATP_Finals_2024</t>
+  </si>
+  <si>
+    <t>APEC Perú</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/APEC_Per%C3%BA_2024</t>
+  </si>
+  <si>
+    <t>WBSC Premier 12</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/WBSC_Premier_12_de_2024</t>
+  </si>
+  <si>
+    <t>Atentado en la estación de Quetta</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Atentado_con_bomba_en_la_estaci%C3%B3n_de_tren_de_Quetta_en_2024</t>
+  </si>
+  <si>
+    <t>Inundaciones en España</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Inundaciones_de_la_DANA_de_2024_en_Espa%C3%B1a</t>
+  </si>
+  <si>
+    <t>Fallecimientos</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Anexo:Fallecidos_en_2024</t>
+  </si>
+  <si>
+    <t>Carolina Valdivia</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Carolina_Valdivia</t>
+  </si>
+  <si>
+    <t>Mariano Aguayo</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Mariano_Aguayo</t>
+  </si>
+  <si>
+    <t>Barbara Aland</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Barbara_Aland</t>
+  </si>
+  <si>
+    <t>Pepe Justicia</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Pepe_Justicia</t>
+  </si>
+  <si>
+    <t>Indira Soundarajan</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Indira_Soundarajan</t>
+  </si>
+  <si>
+    <t>Lou Donaldson</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Lou_Donaldson</t>
+  </si>
+  <si>
+    <t>Valeria Nárbikova</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Valeria_N%C3%A1rbikova</t>
+  </si>
+  <si>
+    <t>James Patrick Keleher</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/James_Patrick_Keleher</t>
+  </si>
+  <si>
+    <t>Bobby Allison</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Bobby_Allison</t>
+  </si>
+  <si>
+    <t>Inés Fernández Moreno</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/In%C3%A9s_Fern%C3%A1ndez_Moreno</t>
+  </si>
+  <si>
+    <t>José António Rocha Garrido</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Jos%C3%A9_Ant%C3%B3nio_Rocha_Garrido</t>
+  </si>
+  <si>
+    <t>Hassan Akesbi</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Hassan_Akesbi</t>
+  </si>
+  <si>
+    <t>Ram Narayan</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Ram_Narayan</t>
+  </si>
+  <si>
+    <t>Yiannis Boutaris</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Yiannis_Boutaris</t>
+  </si>
+  <si>
+    <t>Viacheslav Uzelkov</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Viacheslav_Uzelkov</t>
+  </si>
+  <si>
+    <t>Rumen Ivanov</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Rumen_Ivanov</t>
+  </si>
+  <si>
+    <t>Ernestina Sodi</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Ernestina_Sodi</t>
+  </si>
+  <si>
+    <t>Rachid Mekhloufi</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Rachid_Mekhloufi</t>
+  </si>
+  <si>
+    <t>Fernando Fragata</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Fernando_Fragata</t>
+  </si>
+  <si>
+    <t>James Rawson</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/James_Rawson</t>
+  </si>
+  <si>
+    <t>Día Mundial contra la Neumonía</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/D%C3%ADa_Mundial_contra_la_Neumon%C3%ADa</t>
+  </si>
+  <si>
+    <t>Semana Internacional de la Ciencia y la Paz</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Semana_Internacional_de_la_Ciencia_y_la_Paz</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Angola</t>
+  </si>
+  <si>
+    <t>Categoría:Actualidad</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Categor%C3%ADa:Actualidad</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/2024</t>
+  </si>
+  <si>
+    <t>Categoría:2024</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Categor%C3%ADa:2024</t>
+  </si>
+  <si>
+    <t>Otros eventos actuales</t>
+  </si>
+  <si>
+    <t>Categoría de actualidad</t>
+  </si>
+  <si>
+    <t>Año 2024</t>
+  </si>
+  <si>
+    <t>Categoría 2024</t>
+  </si>
+  <si>
+    <t>Plantilla</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Plantilla:Portada:Actualidad</t>
+  </si>
+  <si>
+    <t>12 de noviembre</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/12_de_noviembre</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/1924</t>
+  </si>
+  <si>
+    <t>Edmund Dene Morel</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Edmund_Dene_Morel</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/1934</t>
+  </si>
+  <si>
+    <t>Charles Manson</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Charles_Manson</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/1974</t>
+  </si>
+  <si>
+    <t>Alessandro Birindelli</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Alessandro_Birindelli</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/1999</t>
+  </si>
+  <si>
+    <t>Courage the Cowardly Dog</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Courage_the_Cowardly_Dog</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/2014</t>
+  </si>
+  <si>
+    <t>Philae</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Philae_(sonda_espacial)</t>
+  </si>
+  <si>
+    <t>11 de noviembre</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/11_de_noviembre</t>
+  </si>
+  <si>
+    <t>13 de noviembre</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/13_de_noviembre</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Plantilla:Efem%C3%A9rides</t>
+  </si>
+  <si>
+    <t>Fundación Wikimedia</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Fundaci%C3%B3n_Wikimedia</t>
+  </si>
+  <si>
+    <t>Licencia Creative Commons Atribución-CompartirIgual 4.0</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Texto_de_la_Licencia_Creative_Commons_Atribuci%C3%B3n-CompartirIgual_4.0_Internacional</t>
+  </si>
+  <si>
+    <t>Acerca de Wikipedia</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Acerca_de</t>
+  </si>
+  <si>
+    <t>Limitación de responsabilidad</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Wikipedia:Limitaci%C3%B3n_general_de_responsabilidad</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +1251,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,29 +1575,1729 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Título</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>182</v>
+      </c>
+      <c r="B102" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>187</v>
+      </c>
+      <c r="B105" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B106" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>191</v>
+      </c>
+      <c r="B107" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>193</v>
+      </c>
+      <c r="B108" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>195</v>
+      </c>
+      <c r="B109" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>205</v>
+      </c>
+      <c r="B114" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>207</v>
+      </c>
+      <c r="B115" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>209</v>
+      </c>
+      <c r="B116" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>213</v>
+      </c>
+      <c r="B118" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>215</v>
+      </c>
+      <c r="B119" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>217</v>
+      </c>
+      <c r="B120" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>219</v>
+      </c>
+      <c r="B121" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>221</v>
+      </c>
+      <c r="B122" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>223</v>
+      </c>
+      <c r="B123" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>225</v>
+      </c>
+      <c r="B124" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>227</v>
+      </c>
+      <c r="B125" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>229</v>
+      </c>
+      <c r="B126" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>231</v>
+      </c>
+      <c r="B127" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>233</v>
+      </c>
+      <c r="B128" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>235</v>
+      </c>
+      <c r="B129" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>237</v>
+      </c>
+      <c r="B130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>239</v>
+      </c>
+      <c r="B131" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>241</v>
+      </c>
+      <c r="B132" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>243</v>
+      </c>
+      <c r="B133" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>247</v>
+      </c>
+      <c r="B135" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>249</v>
+      </c>
+      <c r="B136" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>253</v>
+      </c>
+      <c r="B138" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>255</v>
+      </c>
+      <c r="B139" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>257</v>
+      </c>
+      <c r="B140" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>259</v>
+      </c>
+      <c r="B141" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>261</v>
+      </c>
+      <c r="B142" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>265</v>
+      </c>
+      <c r="B144" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>267</v>
+      </c>
+      <c r="B145" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>269</v>
+      </c>
+      <c r="B146" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>271</v>
+      </c>
+      <c r="B147" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>273</v>
+      </c>
+      <c r="B148" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>275</v>
+      </c>
+      <c r="B150" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>277</v>
+      </c>
+      <c r="B151" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>279</v>
+      </c>
+      <c r="B152" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>281</v>
+      </c>
+      <c r="B153" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>283</v>
+      </c>
+      <c r="B154" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>285</v>
+      </c>
+      <c r="B155" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>287</v>
+      </c>
+      <c r="B156" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>289</v>
+      </c>
+      <c r="B157" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>291</v>
+      </c>
+      <c r="B158" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>293</v>
+      </c>
+      <c r="B159" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>295</v>
+      </c>
+      <c r="B160" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>297</v>
+      </c>
+      <c r="B161" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>299</v>
+      </c>
+      <c r="B162" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>301</v>
+      </c>
+      <c r="B163" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>303</v>
+      </c>
+      <c r="B164" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>305</v>
+      </c>
+      <c r="B165" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>307</v>
+      </c>
+      <c r="B166" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>309</v>
+      </c>
+      <c r="B167" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>311</v>
+      </c>
+      <c r="B168" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>313</v>
+      </c>
+      <c r="B169" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>315</v>
+      </c>
+      <c r="B170" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>317</v>
+      </c>
+      <c r="B171" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>319</v>
+      </c>
+      <c r="B172" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>321</v>
+      </c>
+      <c r="B173" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>323</v>
+      </c>
+      <c r="B174" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>325</v>
+      </c>
+      <c r="B175" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>327</v>
+      </c>
+      <c r="B176" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>329</v>
+      </c>
+      <c r="B177" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>331</v>
+      </c>
+      <c r="B178" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>333</v>
+      </c>
+      <c r="B179" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>335</v>
+      </c>
+      <c r="B180" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>337</v>
+      </c>
+      <c r="B181" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>339</v>
+      </c>
+      <c r="B182" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>341</v>
+      </c>
+      <c r="B183" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>343</v>
+      </c>
+      <c r="B184" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>345</v>
+      </c>
+      <c r="B185" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>347</v>
+      </c>
+      <c r="B186" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>349</v>
+      </c>
+      <c r="B187" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>351</v>
+      </c>
+      <c r="B188" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>353</v>
+      </c>
+      <c r="B189" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>355</v>
+      </c>
+      <c r="B190" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>357</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>358</v>
+      </c>
+      <c r="B192" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>359</v>
+      </c>
+      <c r="B193" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>360</v>
+      </c>
+      <c r="B194" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>361</v>
+      </c>
+      <c r="B195" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>363</v>
+      </c>
+      <c r="B196" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>365</v>
+      </c>
+      <c r="B197" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>367</v>
+      </c>
+      <c r="B198" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>369</v>
+      </c>
+      <c r="B199" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>371</v>
+      </c>
+      <c r="B200" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>373</v>
+      </c>
+      <c r="B201" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>375</v>
+      </c>
+      <c r="B202" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>377</v>
+      </c>
+      <c r="B203" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>379</v>
+      </c>
+      <c r="B204" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>381</v>
+      </c>
+      <c r="B205" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>383</v>
+      </c>
+      <c r="B206" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>385</v>
+      </c>
+      <c r="B207" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>363</v>
+      </c>
+      <c r="B208" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>387</v>
+      </c>
+      <c r="B209" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>361</v>
+      </c>
+      <c r="B210" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>390</v>
+      </c>
+      <c r="B211" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>392</v>
+      </c>
+      <c r="B212" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>394</v>
+      </c>
+      <c r="B213" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>396</v>
+      </c>
+      <c r="B214" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
